--- a/stage_1/Logical_Counting_Functions/Logical_counting_functions.xlsx
+++ b/stage_1/Logical_Counting_Functions/Logical_counting_functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Logical_Counting_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF890EA6-3180-4E88-8B78-273FA80AAF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4751BBEB-5C6B-4CAD-8F42-0B3D4E85ECB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
